--- a/biology/Zoologie/Anthops_ornatus/Anthops_ornatus.xlsx
+++ b/biology/Zoologie/Anthops_ornatus/Anthops_ornatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthops ornatus (Thomas, 1888) est une chauve-souris de la famille des Hipposideridae. C'est l'unique représentant du genre Anthops. Elle se rencontre dans l'archipel des îles Salomon et à Bougainville, du niveau de la mer jusqu'à une altitude maximale de 200 m.
 </t>
@@ -511,19 +523,90 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le premier spécimen de cette espèce a été collecté en 1888 par Charles Woodford. Ses yeux sont cachés par son pelage avec une excroissance d'un orange vif en forme de fleur couvre une grande partie de son visage, dominée par trois petites boules orange alignées sur son front et par des replis cutanés superposés qui forment une sorte de parabole autour de ses narines[1].
-Genre Anthops
-(en) Référence Mammal Species of the World (3e  éd., 2005) : Anthops  Thomas, 1888  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen de cette espèce a été collecté en 1888 par Charles Woodford. Ses yeux sont cachés par son pelage avec une excroissance d'un orange vif en forme de fleur couvre une grande partie de son visage, dominée par trois petites boules orange alignées sur son front et par des replis cutanés superposés qui forment une sorte de parabole autour de ses narines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anthops_ornatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthops_ornatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre Anthops</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Référence Mammal Species of the World (3e  éd., 2005) : Anthops  Thomas, 1888  
 (en) Référence Catalogue of Life : Anthops Thomas, 1888 (consulté le 6 avril 2023)
 (en) Référence Paleobiology Database : Anthops  Thomas 1888
 (fr + en) Référence ITIS : Anthops  Thomas, 1888
 (en) Référence Animal Diversity Web : Anthops
 (en) Référence NCBI : Anthops (taxons inclus)
-(en) Référence UICN : taxon  Anthops  (consulté le 7 janvier 2023)
-Espèce Anthops ornatus
-(en) Référence Mammal Species of the World (3e  éd., 2005) :  Anthops ornatus    
+(en) Référence UICN : taxon  Anthops  (consulté le 7 janvier 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthops_ornatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthops_ornatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce Anthops ornatus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Référence Mammal Species of the World (3e  éd., 2005) :  Anthops ornatus    
 (en) Référence Catalogue of Life : Anthops ornatus Thomas, 1888
 (fr + en) Référence ITIS : Anthops ornatus  Thomas, 1888
 (en) Référence Animal Diversity Web : Anthops ornatus
